--- a/Proyecto de grado/Trabajo_de_Grado_1/Septiembre/AutoEvaluacion05092021.xlsx
+++ b/Proyecto de grado/Trabajo_de_Grado_1/Septiembre/AutoEvaluacion05092021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive\Documentos\11 Semestre\Trabajo_Grado\Material 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive\Documentos\Anteproyecto\Uniajc_Tesis_OTFV\Proyecto de grado\Trabajo_de_Grado_1\Septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58903587-9234-4700-9EF3-631A9EEBBAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF787A6F-BE6B-4B97-A813-87477F61AA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,19 +338,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Los resultados son acordes a la metidologia planteada, y son productos reconocidos según las categorias establecidas por Miniciencias </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RESULTADOS: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Se cumplen y realizan de acuerdo a lo propuesto, con repepto a: tiempo, conocimiento, recurso humano, técnico y económico</t>
     </r>
   </si>
   <si>
@@ -408,6 +395,19 @@
   </si>
   <si>
     <t>Son coherentes con los objetivos específicos del proyecto y evidencian la solución al problema (objetivo general)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RESULTADOS: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Se cumplen y realizan de acuerdo a lo propuesto, con respecto a: tiempo, conocimiento, recurso humano, técnico y económico</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -749,6 +749,174 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -766,174 +934,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L113" sqref="L113"/>
+    <sheetView tabSelected="1" topLeftCell="C91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119:J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1650,106 +1650,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
@@ -1772,13 +1772,13 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="31" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1796,13 +1796,13 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
         <v>4</v>
@@ -1816,13 +1816,13 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="79" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="6">
         <v>5</v>
       </c>
@@ -1836,13 +1836,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="79" t="s">
+      <c r="A15" s="76"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="6">
         <v>5</v>
       </c>
@@ -1856,50 +1856,50 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="37" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="9">
         <f>AVERAGE(K13:K15)</f>
         <v>4.666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -1910,8 +1910,8 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="3"/>
       <c r="F20" s="8">
         <v>5</v>
@@ -1930,13 +1930,13 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1954,13 +1954,13 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="69" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="6">
         <v>5</v>
       </c>
@@ -1974,13 +1974,13 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="69" t="s">
+      <c r="A23" s="76"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="6">
         <v>5</v>
       </c>
@@ -1994,13 +1994,13 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="69" t="s">
+      <c r="A24" s="76"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="6">
         <v>5</v>
       </c>
@@ -2014,33 +2014,33 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="69" t="s">
+      <c r="A25" s="76"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="6">
-        <v>5</v>
-      </c>
-      <c r="G25" s="6"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <v>4</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="69" t="s">
+      <c r="A26" s="76"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="6">
         <v>5</v>
       </c>
@@ -2054,50 +2054,50 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="37" t="s">
+      <c r="A27" s="76"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="9">
         <f>AVERAGE(K22:K26)</f>
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -2108,8 +2108,8 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="3"/>
       <c r="F31" s="8">
         <v>5</v>
@@ -2128,13 +2128,13 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="31" t="s">
+      <c r="A32" s="76"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="4" t="s">
         <v>5</v>
       </c>
@@ -2152,15 +2152,15 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="24" t="s">
+      <c r="A33" s="76"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="28"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="6">
         <v>5</v>
       </c>
@@ -2174,13 +2174,13 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="27" t="s">
+      <c r="A34" s="76"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="28"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="6">
         <v>5</v>
       </c>
@@ -2194,13 +2194,13 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27" t="s">
+      <c r="A35" s="76"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="6">
         <v>5</v>
       </c>
@@ -2214,15 +2214,15 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="24" t="s">
+      <c r="A36" s="76"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="28"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="6">
         <v>5</v>
       </c>
@@ -2236,13 +2236,13 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="27" t="s">
+      <c r="A37" s="76"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="28"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="6">
         <v>5</v>
       </c>
@@ -2256,13 +2256,13 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27" t="s">
+      <c r="A38" s="76"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="28"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="6">
         <v>5</v>
       </c>
@@ -2276,51 +2276,51 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="37" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43"/>
       <c r="K39" s="9">
         <f>AVERAGE(K33:K38)</f>
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="42"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="46"/>
       <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="45"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="49"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -2331,8 +2331,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="3"/>
       <c r="F43" s="8">
         <v>5</v>
@@ -2351,13 +2351,13 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="31" t="s">
+      <c r="A44" s="76"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="4" t="s">
         <v>5</v>
       </c>
@@ -2375,15 +2375,15 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="24" t="s">
+      <c r="A45" s="76"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="52"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6">
         <v>4</v>
@@ -2397,13 +2397,13 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="51" t="s">
+      <c r="A46" s="76"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="52"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="6">
         <v>5</v>
       </c>
@@ -2417,13 +2417,13 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="51" t="s">
+      <c r="A47" s="76"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="52"/>
+      <c r="E47" s="40"/>
       <c r="F47" s="6">
         <v>5</v>
       </c>
@@ -2437,37 +2437,37 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="6">
-        <v>5</v>
-      </c>
-      <c r="G48" s="6"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6">
+        <v>4</v>
+      </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="10">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="24" t="s">
+      <c r="A49" s="76"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="52"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
         <v>4</v>
@@ -2481,13 +2481,13 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="51" t="s">
+      <c r="A50" s="76"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="52"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="6">
         <v>5</v>
       </c>
@@ -2501,13 +2501,13 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="51" t="s">
+      <c r="A51" s="76"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="52"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="6">
         <v>5</v>
       </c>
@@ -2521,15 +2521,15 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="76"/>
+      <c r="B52" s="74"/>
       <c r="C52" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="52"/>
+      <c r="E52" s="40"/>
       <c r="F52" s="6">
         <v>5</v>
       </c>
@@ -2543,72 +2543,72 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="76"/>
+      <c r="B53" s="74"/>
       <c r="C53" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="6">
-        <v>5</v>
-      </c>
-      <c r="G53" s="6"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6">
+        <v>4</v>
+      </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="10">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="37" t="s">
+      <c r="A54" s="76"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="39"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="43"/>
       <c r="K54" s="9">
         <f>AVERAGE(K45:K53)</f>
-        <v>4.7777777777777777</v>
+        <v>4.5555555555555554</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="42"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="46"/>
       <c r="K55" s="7"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="45"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="49"/>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
+      <c r="A57" s="76"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -2619,7 +2619,7 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
+      <c r="A58" s="76"/>
       <c r="C58" s="3"/>
       <c r="F58" s="8">
         <v>5</v>
@@ -2638,13 +2638,13 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="31" t="s">
+      <c r="A59" s="77"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="4" t="s">
         <v>5</v>
       </c>
@@ -2662,131 +2662,123 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="53" t="s">
+      <c r="A60" s="77"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="6">
-        <v>5</v>
-      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="10">
         <f>SUM(F60:J60)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="53" t="s">
+      <c r="A61" s="77"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="54"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="28"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6">
-        <v>4</v>
-      </c>
+      <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="10">
         <f t="shared" ref="K61:K63" si="4">SUM(F61:J61)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="53" t="s">
+      <c r="A62" s="77"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="50"/>
-      <c r="E62" s="54"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="28"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6">
-        <v>4</v>
-      </c>
+      <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="10">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="53" t="s">
+      <c r="A63" s="77"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="50"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="6">
-        <v>5</v>
-      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="10">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="37" t="s">
+      <c r="A64" s="77"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="39"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="43"/>
       <c r="K64" s="9">
         <f>AVERAGE(K60:K63)</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="42"/>
+      <c r="A65" s="77"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="46"/>
       <c r="K65" s="7"/>
     </row>
     <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="45"/>
+      <c r="A66" s="77"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="49"/>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="19"/>
+      <c r="A67" s="77"/>
+      <c r="B67" s="75"/>
       <c r="C67" s="12"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -2797,8 +2789,8 @@
       <c r="J67" s="14"/>
     </row>
     <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="19"/>
+      <c r="A68" s="77"/>
+      <c r="B68" s="75"/>
       <c r="C68" s="12"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
@@ -2819,13 +2811,13 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="31" t="s">
+      <c r="A69" s="77"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="32"/>
-      <c r="E69" s="33"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="22"/>
       <c r="F69" s="4" t="s">
         <v>5</v>
       </c>
@@ -2843,13 +2835,13 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="34" t="s">
+      <c r="A70" s="77"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="36"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="73"/>
       <c r="F70" s="6">
         <v>5</v>
       </c>
@@ -2863,13 +2855,13 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="34" t="s">
+      <c r="A71" s="77"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="36"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="73"/>
       <c r="F71" s="6">
         <v>5</v>
       </c>
@@ -2883,33 +2875,33 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="34" t="s">
+      <c r="A72" s="77"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="6">
-        <v>5</v>
-      </c>
-      <c r="G72" s="6"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6">
+        <v>4</v>
+      </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="10">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="34" t="s">
+      <c r="A73" s="77"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="36"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="73"/>
       <c r="F73" s="6">
         <v>5</v>
       </c>
@@ -2923,51 +2915,51 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="37" t="s">
+      <c r="A74" s="77"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="39"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="43"/>
       <c r="K74" s="9">
         <f>AVERAGE(K70:K73)</f>
-        <v>5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="42"/>
+      <c r="A75" s="77"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="46"/>
       <c r="K75" s="7"/>
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="45"/>
+      <c r="A76" s="77"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="49"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="19"/>
+      <c r="A77" s="77"/>
+      <c r="B77" s="75"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
@@ -2978,8 +2970,8 @@
       <c r="J77" s="11"/>
     </row>
     <row r="78" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="19"/>
+      <c r="A78" s="77"/>
+      <c r="B78" s="75"/>
       <c r="C78" s="3"/>
       <c r="F78" s="8">
         <v>5</v>
@@ -2998,13 +2990,13 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="31" t="s">
+      <c r="A79" s="77"/>
+      <c r="B79" s="75"/>
+      <c r="C79" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="33"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="22"/>
       <c r="F79" s="4" t="s">
         <v>5</v>
       </c>
@@ -3022,13 +3014,13 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="27" t="s">
+      <c r="A80" s="77"/>
+      <c r="B80" s="75"/>
+      <c r="C80" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="77"/>
-      <c r="E80" s="28"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="31"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6">
         <v>4</v>
@@ -3042,13 +3034,13 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="27" t="s">
+      <c r="A81" s="77"/>
+      <c r="B81" s="75"/>
+      <c r="C81" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="77"/>
-      <c r="E81" s="28"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="31"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6">
@@ -3062,13 +3054,13 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="27" t="s">
+      <c r="A82" s="77"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D82" s="77"/>
-      <c r="E82" s="28"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="31"/>
       <c r="F82" s="6">
         <v>5</v>
       </c>
@@ -3082,49 +3074,49 @@
       </c>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="37" t="s">
+      <c r="A83" s="77"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="39"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="43"/>
       <c r="K83" s="9">
         <f>AVERAGE(K79:K82)</f>
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="42"/>
+      <c r="A84" s="77"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="46"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="45"/>
+      <c r="A85" s="77"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="49"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
+      <c r="A86" s="77"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
@@ -3135,7 +3127,7 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
+      <c r="A87" s="77"/>
       <c r="C87" s="3"/>
       <c r="F87" s="8">
         <v>5</v>
@@ -3154,13 +3146,13 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="31" t="s">
+      <c r="A88" s="78"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D88" s="32"/>
-      <c r="E88" s="33"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="22"/>
       <c r="F88" s="4" t="s">
         <v>5</v>
       </c>
@@ -3178,15 +3170,15 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="24" t="s">
+      <c r="A89" s="78"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D89" s="29" t="s">
+      <c r="D89" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="E89" s="30"/>
+      <c r="E89" s="67"/>
       <c r="F89" s="6">
         <v>5</v>
       </c>
@@ -3200,13 +3192,13 @@
       </c>
     </row>
     <row r="90" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E90" s="30"/>
+      <c r="A90" s="78"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="67"/>
       <c r="F90" s="6">
         <v>5</v>
       </c>
@@ -3220,92 +3212,92 @@
       </c>
     </row>
     <row r="91" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="24" t="s">
+      <c r="A91" s="78"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="29" t="s">
+      <c r="D91" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="E91" s="30"/>
-      <c r="F91" s="6"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="6">
+        <v>5</v>
+      </c>
       <c r="G91" s="6"/>
-      <c r="H91" s="6">
-        <v>3</v>
-      </c>
+      <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="10">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="29" t="s">
+      <c r="A92" s="78"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E92" s="30"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6">
-        <v>4</v>
-      </c>
+      <c r="E92" s="67"/>
+      <c r="F92" s="6">
+        <v>5</v>
+      </c>
+      <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="10">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="37" t="s">
+      <c r="A93" s="78"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="39"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="43"/>
       <c r="K93" s="9">
         <f>AVERAGE(K89:K92)</f>
-        <v>4.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="42"/>
+      <c r="A94" s="78"/>
+      <c r="B94" s="79"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
+      <c r="J94" s="46"/>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="22"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="45"/>
+      <c r="A95" s="78"/>
+      <c r="B95" s="79"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
+      <c r="J95" s="49"/>
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="22"/>
-      <c r="B96" s="23"/>
+      <c r="A96" s="78"/>
+      <c r="B96" s="79"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
@@ -3316,8 +3308,8 @@
       <c r="J96" s="11"/>
     </row>
     <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
-      <c r="B97" s="23"/>
+      <c r="A97" s="78"/>
+      <c r="B97" s="79"/>
       <c r="C97" s="3"/>
       <c r="F97" s="8">
         <v>5</v>
@@ -3336,13 +3328,13 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="31" t="s">
+      <c r="A98" s="78"/>
+      <c r="B98" s="79"/>
+      <c r="C98" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D98" s="32"/>
-      <c r="E98" s="33"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="22"/>
       <c r="F98" s="4" t="s">
         <v>5</v>
       </c>
@@ -3360,13 +3352,13 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="53" t="s">
+      <c r="A99" s="78"/>
+      <c r="B99" s="79"/>
+      <c r="C99" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="50"/>
-      <c r="E99" s="54"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="28"/>
       <c r="F99" s="6">
         <v>5</v>
       </c>
@@ -3380,33 +3372,33 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="22"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="53" t="s">
+      <c r="A100" s="78"/>
+      <c r="B100" s="79"/>
+      <c r="C100" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D100" s="50"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="6">
-        <v>5</v>
-      </c>
-      <c r="G100" s="6"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6">
+        <v>4</v>
+      </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="10">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="53" t="s">
+      <c r="A101" s="78"/>
+      <c r="B101" s="79"/>
+      <c r="C101" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D101" s="50"/>
-      <c r="E101" s="54"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="28"/>
       <c r="F101" s="6">
         <v>5</v>
       </c>
@@ -3420,51 +3412,51 @@
       </c>
     </row>
     <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="37" t="s">
+      <c r="A102" s="78"/>
+      <c r="B102" s="79"/>
+      <c r="C102" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="39"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="43"/>
       <c r="K102" s="9">
         <f>AVERAGE(K98:K101)</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="42"/>
+      <c r="A103" s="78"/>
+      <c r="B103" s="79"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="46"/>
       <c r="K103" s="7"/>
     </row>
     <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="45"/>
+      <c r="A104" s="78"/>
+      <c r="B104" s="79"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="49"/>
     </row>
     <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
-      <c r="B105" s="23"/>
+      <c r="A105" s="78"/>
+      <c r="B105" s="79"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
@@ -3475,8 +3467,8 @@
       <c r="J105" s="11"/>
     </row>
     <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
-      <c r="B106" s="23"/>
+      <c r="A106" s="78"/>
+      <c r="B106" s="79"/>
       <c r="C106" s="3"/>
       <c r="F106" s="8">
         <v>5</v>
@@ -3495,13 +3487,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="31" t="s">
+      <c r="A107" s="78"/>
+      <c r="B107" s="79"/>
+      <c r="C107" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="32"/>
-      <c r="E107" s="33"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="4" t="s">
         <v>5</v>
       </c>
@@ -3519,13 +3511,13 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="22"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="64" t="s">
+      <c r="A108" s="78"/>
+      <c r="B108" s="79"/>
+      <c r="C108" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D108" s="65"/>
-      <c r="E108" s="66"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
       <c r="F108" s="16">
         <v>5</v>
       </c>
@@ -3539,13 +3531,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="64" t="s">
+      <c r="A109" s="78"/>
+      <c r="B109" s="79"/>
+      <c r="C109" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D109" s="65"/>
-      <c r="E109" s="66"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="25"/>
       <c r="F109" s="16">
         <v>5</v>
       </c>
@@ -3559,13 +3551,13 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D110" s="65"/>
-      <c r="E110" s="66"/>
+      <c r="A110" s="78"/>
+      <c r="B110" s="79"/>
+      <c r="C110" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="24"/>
+      <c r="E110" s="25"/>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
       <c r="H110" s="16">
@@ -3579,15 +3571,15 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
-      <c r="B111" s="23"/>
+      <c r="A111" s="78"/>
+      <c r="B111" s="79"/>
       <c r="C111" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D111" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D111" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E111" s="74"/>
+      <c r="E111" s="38"/>
       <c r="F111" s="16">
         <v>5</v>
       </c>
@@ -3601,13 +3593,13 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
-      <c r="B112" s="23"/>
+      <c r="A112" s="78"/>
+      <c r="B112" s="79"/>
       <c r="C112" s="17"/>
-      <c r="D112" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="E112" s="74"/>
+      <c r="D112" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E112" s="38"/>
       <c r="F112" s="16">
         <v>5</v>
       </c>
@@ -3621,13 +3613,13 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="22"/>
-      <c r="B113" s="23"/>
+      <c r="A113" s="78"/>
+      <c r="B113" s="79"/>
       <c r="C113" s="17"/>
-      <c r="D113" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="E113" s="74"/>
+      <c r="D113" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E113" s="38"/>
       <c r="F113" s="16">
         <v>5</v>
       </c>
@@ -3641,10 +3633,10 @@
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="22"/>
-      <c r="B114" s="23"/>
+      <c r="A114" s="78"/>
+      <c r="B114" s="79"/>
       <c r="C114" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D114" s="56"/>
       <c r="E114" s="56"/>
@@ -3683,47 +3675,123 @@
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C118" s="72" t="s">
+      <c r="C118" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C119" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="D118" s="72"/>
-      <c r="E118" s="72"/>
-      <c r="F118" s="72"/>
-      <c r="G118" s="72"/>
-      <c r="H118" s="72"/>
-      <c r="I118" s="72"/>
-      <c r="J118" s="72"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C119" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D119" s="46"/>
-      <c r="E119" s="47">
+      <c r="D119" s="68"/>
+      <c r="E119" s="69">
         <f>AVERAGE(K114,K102,K27,K83,K64,K54,K74,K39,K16,K93)</f>
-        <v>4.6861111111111109</v>
-      </c>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
-      <c r="H119" s="47"/>
-      <c r="I119" s="47"/>
-      <c r="J119" s="47"/>
+        <v>4.2105555555555556</v>
+      </c>
+      <c r="F119" s="69"/>
+      <c r="G119" s="69"/>
+      <c r="H119" s="69"/>
+      <c r="I119" s="69"/>
+      <c r="J119" s="69"/>
     </row>
     <row r="120" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="72"/>
-      <c r="D120" s="72"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
-      <c r="I120" s="72"/>
-      <c r="J120" s="72"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="36"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C121" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="B12:B56"/>
+    <mergeCell ref="B59:B85"/>
+    <mergeCell ref="A12:A58"/>
+    <mergeCell ref="A59:A87"/>
+    <mergeCell ref="A88:A114"/>
+    <mergeCell ref="B88:B114"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:J76"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="E119:J119"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="C7:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C83:J85"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="C102:J104"/>
+    <mergeCell ref="C114:J116"/>
+    <mergeCell ref="C64:J66"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="C93:J95"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C16:J18"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:J29"/>
+    <mergeCell ref="C120:J120"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="C118:J118"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="C39:J41"/>
+    <mergeCell ref="C54:J56"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="C44:E44"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="C107:E107"/>
@@ -3740,82 +3808,6 @@
     <mergeCell ref="C5:J6"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C120:J120"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="C118:J118"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="C39:J41"/>
-    <mergeCell ref="C54:J56"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C16:J18"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:J29"/>
-    <mergeCell ref="C102:J104"/>
-    <mergeCell ref="C114:J116"/>
-    <mergeCell ref="C64:J66"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="C93:J95"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="E119:J119"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="C7:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C83:J85"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:J76"/>
-    <mergeCell ref="B12:B56"/>
-    <mergeCell ref="B59:B85"/>
-    <mergeCell ref="A12:A58"/>
-    <mergeCell ref="A59:A87"/>
-    <mergeCell ref="A88:A114"/>
-    <mergeCell ref="B88:B114"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="cellIs" dxfId="29" priority="43" stopIfTrue="1" operator="between">
@@ -3954,12 +3946,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100986C923E9BFBC149AF1275DF0C494D5E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2913701de346c14546e5818749538cc5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f518593c-80dd-44de-9a3c-676a2e2c7425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4bc89830f62713ef4e502698ecb41d3" ns2:_="">
     <xsd:import namespace="f518593c-80dd-44de-9a3c-676a2e2c7425"/>
@@ -4091,6 +4077,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB65CCE9-A250-455A-B375-8DC0CDA685B6}">
   <ds:schemaRefs>
@@ -4100,15 +4092,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22793301-CB1C-4E87-AC66-4C52467637AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93B4752A-B3CF-4443-8134-E6E4DEC65C05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4124,4 +4107,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22793301-CB1C-4E87-AC66-4C52467637AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>